--- a/MVPLT/data/收益率.xlsx
+++ b/MVPLT/data/收益率.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>张炀</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>翁兆宇</t>
+  </si>
+  <si>
+    <t>综合</t>
   </si>
 </sst>
 </file>
@@ -389,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43053</v>
       </c>
@@ -424,6 +430,269 @@
       </c>
       <c r="E2">
         <v>-0.001900966619635195</v>
+      </c>
+      <c r="F2">
+        <v>-0.002102148557701692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B3">
+        <v>-0.001662038377368922</v>
+      </c>
+      <c r="C3">
+        <v>-0.0005448111760684408</v>
+      </c>
+      <c r="D3">
+        <v>-0.001176047830437107</v>
+      </c>
+      <c r="E3">
+        <v>-0.0007014600632923539</v>
+      </c>
+      <c r="F3">
+        <v>-0.0009339177349282463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B4">
+        <v>0.001059180490807509</v>
+      </c>
+      <c r="C4">
+        <v>0.0004013153066153683</v>
+      </c>
+      <c r="D4">
+        <v>0.0008749070364767572</v>
+      </c>
+      <c r="E4">
+        <v>0.00027077905299315</v>
+      </c>
+      <c r="F4">
+        <v>0.0005477000847968199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B5">
+        <v>0.0006389618823042985</v>
+      </c>
+      <c r="C5">
+        <v>0.0003274862552788082</v>
+      </c>
+      <c r="D5">
+        <v>0.0004905618343137036</v>
+      </c>
+      <c r="E5">
+        <v>0.0009416498882595496</v>
+      </c>
+      <c r="F5">
+        <v>0.0006929335804628517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B6">
+        <v>0.0007308659756699338</v>
+      </c>
+      <c r="C6">
+        <v>0.0001955078435927942</v>
+      </c>
+      <c r="D6">
+        <v>0.0005154971848016532</v>
+      </c>
+      <c r="E6">
+        <v>-5.978523576180474e-07</v>
+      </c>
+      <c r="F6">
+        <v>0.0002618866133036976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B7">
+        <v>0.002692692756224336</v>
+      </c>
+      <c r="C7">
+        <v>0.0007862644083194491</v>
+      </c>
+      <c r="D7">
+        <v>0.00177391823927515</v>
+      </c>
+      <c r="E7">
+        <v>0.001031282598256777</v>
+      </c>
+      <c r="F7">
+        <v>0.00142383307262925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B8">
+        <v>5.354553972617034e-05</v>
+      </c>
+      <c r="C8">
+        <v>-0.0002697314377127753</v>
+      </c>
+      <c r="D8">
+        <v>-0.0004411671814245144</v>
+      </c>
+      <c r="E8">
+        <v>0.0001182940330006266</v>
+      </c>
+      <c r="F8">
+        <v>-6.574872671082782e-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B9">
+        <v>-0.005309290733148418</v>
+      </c>
+      <c r="C9">
+        <v>-0.001737209080426478</v>
+      </c>
+      <c r="D9">
+        <v>-0.003829427785681658</v>
+      </c>
+      <c r="E9">
+        <v>-0.001897967038445143</v>
+      </c>
+      <c r="F9">
+        <v>-0.002840153671885348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B10">
+        <v>0.001012975460265233</v>
+      </c>
+      <c r="C10">
+        <v>0.0004876117200798768</v>
+      </c>
+      <c r="D10">
+        <v>0.0009001394060514975</v>
+      </c>
+      <c r="E10">
+        <v>0.0007188909642598164</v>
+      </c>
+      <c r="F10">
+        <v>0.0007632643630992998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B11">
+        <v>-0.002601406910837442</v>
+      </c>
+      <c r="C11">
+        <v>-0.000815327426982563</v>
+      </c>
+      <c r="D11">
+        <v>-0.001796603605537924</v>
+      </c>
+      <c r="E11">
+        <v>-0.001031125978658062</v>
+      </c>
+      <c r="F11">
+        <v>-0.001416573252727833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B12">
+        <v>0.0006558489732943359</v>
+      </c>
+      <c r="C12">
+        <v>0.0001527492295942118</v>
+      </c>
+      <c r="D12">
+        <v>0.0004044057382647101</v>
+      </c>
+      <c r="E12">
+        <v>9.941790349585563e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.000265736127253254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>43068</v>
+      </c>
+      <c r="B13">
+        <v>-0.0003220759924099998</v>
+      </c>
+      <c r="C13">
+        <v>-8.044402468483495e-05</v>
+      </c>
+      <c r="D13">
+        <v>-0.000146011675805804</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003233962766702558</v>
+      </c>
+      <c r="F13">
+        <v>-0.0002467313426502324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B14">
+        <v>-0.002173948428406254</v>
+      </c>
+      <c r="C14">
+        <v>-0.0006592230789772386</v>
+      </c>
+      <c r="D14">
+        <v>-0.001460628380025805</v>
+      </c>
+      <c r="E14">
+        <v>-0.0008870167543879884</v>
+      </c>
+      <c r="F14">
+        <v>-0.001183880322432594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B15">
+        <v>0.001516714393229432</v>
+      </c>
+      <c r="C15">
+        <v>0.000618252861789378</v>
+      </c>
+      <c r="D15">
+        <v>0.00115660945250958</v>
+      </c>
+      <c r="E15">
+        <v>0.001134849257856818</v>
+      </c>
+      <c r="F15">
+        <v>0.001114309064030988</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/收益率.xlsx
+++ b/MVPLT/data/收益率.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,6 +695,306 @@
         <v>0.001114309064030988</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B16">
+        <v>-0.0005944619204050589</v>
+      </c>
+      <c r="C16">
+        <v>-0.000178519320548993</v>
+      </c>
+      <c r="D16">
+        <v>-0.0002922772825246366</v>
+      </c>
+      <c r="E16">
+        <v>-0.000709804756369664</v>
+      </c>
+      <c r="F16">
+        <v>-0.0005163218935277905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B17">
+        <v>-0.0004622646716357413</v>
+      </c>
+      <c r="C17">
+        <v>-0.0001213929165074426</v>
+      </c>
+      <c r="D17">
+        <v>-0.0002767004488261474</v>
+      </c>
+      <c r="E17">
+        <v>-0.0002056650378540167</v>
+      </c>
+      <c r="F17">
+        <v>-0.000249912842109886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B18">
+        <v>-0.002230790717030702</v>
+      </c>
+      <c r="C18">
+        <v>-0.0008071966653278106</v>
+      </c>
+      <c r="D18">
+        <v>-0.001558515985640394</v>
+      </c>
+      <c r="E18">
+        <v>-0.001580364686781779</v>
+      </c>
+      <c r="F18">
+        <v>-0.001554075469991519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B19">
+        <v>-0.001294278732533276</v>
+      </c>
+      <c r="C19">
+        <v>-0.0003859615900285681</v>
+      </c>
+      <c r="D19">
+        <v>-0.0009223189945215842</v>
+      </c>
+      <c r="E19">
+        <v>-0.0002461695653632152</v>
+      </c>
+      <c r="F19">
+        <v>-0.0005850878600893576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B20">
+        <v>0.002343297446556447</v>
+      </c>
+      <c r="C20">
+        <v>0.0007795973454976131</v>
+      </c>
+      <c r="D20">
+        <v>0.001636091546555452</v>
+      </c>
+      <c r="E20">
+        <v>0.001173983712045583</v>
+      </c>
+      <c r="F20">
+        <v>0.001398899203404267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B21">
+        <v>0.003304153648731546</v>
+      </c>
+      <c r="C21">
+        <v>0.001025177705462076</v>
+      </c>
+      <c r="D21">
+        <v>0.002243077460081406</v>
+      </c>
+      <c r="E21">
+        <v>0.00140746455964655</v>
+      </c>
+      <c r="F21">
+        <v>0.001834740038798437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B22">
+        <v>-0.003456427582344675</v>
+      </c>
+      <c r="C22">
+        <v>-0.001246130738122757</v>
+      </c>
+      <c r="D22">
+        <v>-0.002557091688016446</v>
+      </c>
+      <c r="E22">
+        <v>-0.001778306350043439</v>
+      </c>
+      <c r="F22">
+        <v>-0.00212825743338045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B23">
+        <v>0.0008357222629611384</v>
+      </c>
+      <c r="C23">
+        <v>0.0002133079607808939</v>
+      </c>
+      <c r="D23">
+        <v>0.000570874678060096</v>
+      </c>
+      <c r="E23">
+        <v>1.158480364033817e-05</v>
+      </c>
+      <c r="F23">
+        <v>0.0002997939838005407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B24">
+        <v>0.0001090219469952766</v>
+      </c>
+      <c r="C24">
+        <v>0.0001312361088824682</v>
+      </c>
+      <c r="D24">
+        <v>0.00015114321570445</v>
+      </c>
+      <c r="E24">
+        <v>0.0003987974432319002</v>
+      </c>
+      <c r="F24">
+        <v>0.0002524354326658083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B25">
+        <v>-0.001299621027169095</v>
+      </c>
+      <c r="C25">
+        <v>-0.0003015460585307685</v>
+      </c>
+      <c r="D25">
+        <v>-0.0007866784670662347</v>
+      </c>
+      <c r="E25">
+        <v>-0.0002549015290775261</v>
+      </c>
+      <c r="F25">
+        <v>-0.000550018068265439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B26">
+        <v>0.0004288280656923256</v>
+      </c>
+      <c r="C26">
+        <v>0.0002270074916049891</v>
+      </c>
+      <c r="D26">
+        <v>0.0003995982481073867</v>
+      </c>
+      <c r="E26">
+        <v>0.0003701662356505322</v>
+      </c>
+      <c r="F26">
+        <v>0.0003601544353692786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B27">
+        <v>0.002430389619521425</v>
+      </c>
+      <c r="C27">
+        <v>0.0007975080450757909</v>
+      </c>
+      <c r="D27">
+        <v>0.001721502678887412</v>
+      </c>
+      <c r="E27">
+        <v>0.001025570441085958</v>
+      </c>
+      <c r="F27">
+        <v>0.001366059353854459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B28">
+        <v>0.0001089424083976924</v>
+      </c>
+      <c r="C28">
+        <v>6.132764247234683e-05</v>
+      </c>
+      <c r="D28">
+        <v>5.062307609662826e-05</v>
+      </c>
+      <c r="E28">
+        <v>0.0003480783073540785</v>
+      </c>
+      <c r="F28">
+        <v>0.0001983797991548844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B29">
+        <v>0.001880204996784221</v>
+      </c>
+      <c r="C29">
+        <v>0.000608141966007871</v>
+      </c>
+      <c r="D29">
+        <v>0.001309736141192943</v>
+      </c>
+      <c r="E29">
+        <v>0.0008276930894249351</v>
+      </c>
+      <c r="F29">
+        <v>0.001066784695917704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B30">
+        <v>0.0005670897767565937</v>
+      </c>
+      <c r="C30">
+        <v>0.001971559873547583</v>
+      </c>
+      <c r="D30">
+        <v>0.0006014922622464524</v>
+      </c>
+      <c r="E30">
+        <v>0.001881217170651628</v>
+      </c>
+      <c r="F30">
+        <v>0.001426033607123582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
